--- a/background/Data Management Decisions.xlsx
+++ b/background/Data Management Decisions.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ce55a8e48bd9bf7f/Desktop/ReposGoHere/PublicRepos/Capstone/background/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\conor\OneDrive\Desktop\ReposGoHere\PublicRepos\Capstone\background\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="141" documentId="8_{06C3BFF7-5816-4FB8-96FC-4C1D4824F7F6}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{E6A98AEF-3017-4E70-A9EF-70CE42220B39}"/>
+  <xr:revisionPtr revIDLastSave="145" documentId="8_{06C3BFF7-5816-4FB8-96FC-4C1D4824F7F6}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{BB833965-3215-4EE5-99A1-B0B841DE8606}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6880" xr2:uid="{18465B53-FB95-4D52-AD70-E9F87173E11D}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="82">
   <si>
     <t>engagement_matrix_v2</t>
   </si>
@@ -155,9 +155,6 @@
     <t>Plot of summary graph</t>
   </si>
   <si>
-    <t>No-Redo on v4</t>
-  </si>
-  <si>
     <t>Engagement Analysis v3</t>
   </si>
   <si>
@@ -171,9 +168,6 @@
   </si>
   <si>
     <t>Slice of top vids</t>
-  </si>
-  <si>
-    <t>No-redo on v6</t>
   </si>
   <si>
     <t>Classification_Engagement</t>
@@ -642,8 +636,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A76AEEF-77D0-44F5-A7B8-A796A25D8935}">
   <dimension ref="A4:K49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J35" sqref="J35"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -719,13 +713,13 @@
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
@@ -745,14 +739,14 @@
         <v>2</v>
       </c>
       <c r="I7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J7" t="str">
         <f>IFERROR(VLOOKUP(H7, $D$5:$E$30, 2, 0), "")</f>
         <v>yes</v>
       </c>
       <c r="K7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
@@ -789,14 +783,14 @@
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J9" t="str">
         <f>IFERROR(VLOOKUP(H9, $D$5:$E$30, 2, 0), "")</f>
         <v>yes</v>
       </c>
       <c r="K9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
@@ -807,63 +801,63 @@
         <v>40</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E10" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H10" t="s">
         <v>4</v>
       </c>
       <c r="J10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" t="s">
         <v>42</v>
-      </c>
-      <c r="C11" t="s">
-        <v>43</v>
       </c>
       <c r="D11" t="s">
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H11" t="s">
         <v>5</v>
       </c>
       <c r="I11" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="J11" t="str">
         <f>IFERROR(VLOOKUP(H11, $D$5:$E$30, 2, 0), "")</f>
         <v>No</v>
       </c>
       <c r="K11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" t="s">
         <v>45</v>
       </c>
-      <c r="C12" t="s">
-        <v>46</v>
-      </c>
       <c r="D12" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E12" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J12" t="str">
         <f t="shared" ref="J12:J16" si="0">IFERROR(VLOOKUP(H12, $D$5:$E$30, 2, 0), "")</f>
@@ -872,10 +866,10 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="H13" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J13" t="str">
         <f t="shared" si="0"/>
@@ -887,10 +881,10 @@
         <v>25</v>
       </c>
       <c r="H14" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J14" t="str">
         <f t="shared" si="0"/>
@@ -899,22 +893,22 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C15" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D15" t="s">
         <v>2</v>
       </c>
       <c r="E15" t="s">
+        <v>48</v>
+      </c>
+      <c r="H15" t="s">
         <v>50</v>
       </c>
-      <c r="H15" t="s">
-        <v>52</v>
-      </c>
       <c r="I15" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J15" t="str">
         <f t="shared" si="0"/>
@@ -926,13 +920,13 @@
         <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H16" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I16" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J16" t="str">
         <f t="shared" si="0"/>
@@ -941,10 +935,10 @@
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.35">
       <c r="D17" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E17" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J17" t="str">
         <f>IFERROR(VLOOKUP(H17, $D$5:$E$30, 2, 0), "")</f>
@@ -953,13 +947,13 @@
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D18" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E18" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G18" t="s">
         <v>7</v>
@@ -971,22 +965,22 @@
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.35">
       <c r="D19" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E19" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H19" t="s">
         <v>8</v>
       </c>
       <c r="I19" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K19" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.35">
@@ -1003,18 +997,18 @@
       </c>
       <c r="J21" t="str">
         <f>IFERROR(VLOOKUP(H21, $D$5:$E$30, 2, 0), "")</f>
-        <v>No-redo on v6</v>
+        <v/>
       </c>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E22" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H22" t="s">
         <v>11</v>
@@ -1025,10 +1019,10 @@
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.35">
       <c r="D23" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E23" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H23" t="s">
         <v>12</v>
@@ -1039,10 +1033,10 @@
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.35">
       <c r="D24" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E24" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H24" t="s">
         <v>13</v>
@@ -1053,37 +1047,37 @@
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.35">
       <c r="D25" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E25" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H25" t="s">
         <v>14</v>
       </c>
       <c r="I25" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K25" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.35">
       <c r="D26" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E26" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H26" t="s">
         <v>16</v>
       </c>
       <c r="J26" t="str">
         <f>IFERROR(VLOOKUP(H26, $D$5:$E$30, 2, 0), "")</f>
-        <v>No-Redo on v4</v>
+        <v/>
       </c>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.35">
@@ -1096,10 +1090,10 @@
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B28" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D28" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H28" t="s">
         <v>21</v>
@@ -1128,7 +1122,7 @@
         <v>18</v>
       </c>
       <c r="I31" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="J31" t="str">
         <f t="shared" si="1"/>
@@ -1137,7 +1131,7 @@
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B32" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D32" t="s">
         <v>22</v>
@@ -1155,13 +1149,13 @@
         <v>2</v>
       </c>
       <c r="E33" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H33" t="s">
         <v>19</v>
       </c>
       <c r="I33" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="J33" t="str">
         <f>IFERROR(VLOOKUP(H33, $D$5:$E$30, 2, 0), "")</f>
@@ -1173,38 +1167,38 @@
         <v>20</v>
       </c>
       <c r="I34" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J34" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K34" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B35" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D35" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E35" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H35" t="s">
         <v>21</v>
       </c>
       <c r="J35" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.35">
       <c r="D36" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E36" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H36" t="s">
         <v>15</v>
@@ -1219,7 +1213,7 @@
       </c>
       <c r="J37" t="str">
         <f>IFERROR(VLOOKUP(H37, $D$5:$E$47, 2, 0), "")</f>
-        <v>No-Redo on v4</v>
+        <v/>
       </c>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.35">
@@ -1227,8 +1221,8 @@
         <v>14</v>
       </c>
       <c r="J38" t="str">
-        <f t="shared" ref="J38:J40" si="2">IFERROR(VLOOKUP(H38, $D$5:$E$69, 2, 0), "")</f>
-        <v/>
+        <f t="shared" ref="J38" si="2">IFERROR(VLOOKUP(H38, $D$5:$E$69, 2, 0), "")</f>
+        <v>No</v>
       </c>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.35">
@@ -1236,7 +1230,7 @@
         <v>22</v>
       </c>
       <c r="I39" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J39" t="str">
         <f>IFERROR(VLOOKUP(H39, $D$5:$E$69, 2, 0), "")</f>
@@ -1248,7 +1242,7 @@
         <v>23</v>
       </c>
       <c r="I40" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J40" t="str">
         <f t="shared" ref="J40" si="3">IFERROR(VLOOKUP(H40, $D$5:$E$69, 2, 0), "")</f>
@@ -1257,38 +1251,38 @@
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B41" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D41" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E41" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.35">
       <c r="D42" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E42" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G42" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.35">
       <c r="D43" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E43" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H43" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I43" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J43" t="str">
         <f t="shared" ref="J43" si="4">IFERROR(VLOOKUP(H43, $D$5:$E$69, 2, 0), "")</f>
@@ -1297,10 +1291,10 @@
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.35">
       <c r="H44" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I44" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J44">
         <f t="shared" ref="J44" si="5">IFERROR(VLOOKUP(H44, $D$5:$E$69, 2, 0), "")</f>
@@ -1309,34 +1303,34 @@
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B46" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.35">
       <c r="G47" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H47" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I47" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.35">
       <c r="H48" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I48" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B49" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D49" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
